--- a/individual_results/avey/489.xlsx
+++ b/individual_results/avey/489.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.3333333333333333</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -697,9 +697,7 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.4</v>
       </c>
@@ -750,9 +748,7 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -804,7 +800,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.41311732856428</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.17376534287144</v>
@@ -950,7 +946,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1023,7 +1019,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1095,9 +1091,7 @@
           <t>position</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
